--- a/data/pca/factorExposure/factorExposure_2011-10-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01374660091260832</v>
+        <v>-0.01473801267706494</v>
       </c>
       <c r="C2">
-        <v>0.03554575698502001</v>
+        <v>0.0002626855305039493</v>
       </c>
       <c r="D2">
-        <v>-0.01857455763790787</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03381429758488867</v>
+      </c>
+      <c r="E2">
+        <v>-0.0008126291902998436</v>
+      </c>
+      <c r="F2">
+        <v>-0.03887445049516482</v>
+      </c>
+      <c r="G2">
+        <v>0.01575670015089728</v>
+      </c>
+      <c r="H2">
+        <v>-0.01069909496853908</v>
+      </c>
+      <c r="I2">
+        <v>0.01619877375513003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07695233693172883</v>
+        <v>-0.09273584357995093</v>
       </c>
       <c r="C4">
-        <v>0.06228466355907185</v>
+        <v>0.04298003124102454</v>
       </c>
       <c r="D4">
-        <v>-0.07972127443087786</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07667360099015644</v>
+      </c>
+      <c r="E4">
+        <v>0.0325109726220278</v>
+      </c>
+      <c r="F4">
+        <v>-0.04978976030737657</v>
+      </c>
+      <c r="G4">
+        <v>-0.02712713058911023</v>
+      </c>
+      <c r="H4">
+        <v>0.009231855832561395</v>
+      </c>
+      <c r="I4">
+        <v>-0.07374443027702617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.1131936656968821</v>
+        <v>-0.1276012055541997</v>
       </c>
       <c r="C6">
-        <v>0.04826000260978839</v>
+        <v>-0.002033715433168928</v>
       </c>
       <c r="D6">
-        <v>-0.01346650806572927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.03888631597138386</v>
+      </c>
+      <c r="E6">
+        <v>-0.02169429429853408</v>
+      </c>
+      <c r="F6">
+        <v>-0.03725788360109915</v>
+      </c>
+      <c r="G6">
+        <v>-0.04849542715168738</v>
+      </c>
+      <c r="H6">
+        <v>-0.1771266384852628</v>
+      </c>
+      <c r="I6">
+        <v>-0.02027713702422711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.06463023779302014</v>
+        <v>-0.06862262069314116</v>
       </c>
       <c r="C7">
-        <v>0.0481588189316415</v>
+        <v>0.0387756594745377</v>
       </c>
       <c r="D7">
-        <v>-0.03331655412752048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05230369113374016</v>
+      </c>
+      <c r="E7">
+        <v>0.011019145686217</v>
+      </c>
+      <c r="F7">
+        <v>-0.05575647762026522</v>
+      </c>
+      <c r="G7">
+        <v>0.01884807734314178</v>
+      </c>
+      <c r="H7">
+        <v>0.01528242937449863</v>
+      </c>
+      <c r="I7">
+        <v>-0.0363672522729215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04283772832890351</v>
+        <v>-0.04344657602627775</v>
       </c>
       <c r="C8">
-        <v>-0.0007803300244233851</v>
+        <v>0.02769127887471937</v>
       </c>
       <c r="D8">
-        <v>-0.06220542672116415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0097234016218303</v>
+      </c>
+      <c r="E8">
+        <v>0.03925813291550133</v>
+      </c>
+      <c r="F8">
+        <v>-0.06893536508057072</v>
+      </c>
+      <c r="G8">
+        <v>-0.04608447538599767</v>
+      </c>
+      <c r="H8">
+        <v>-0.02077231321854373</v>
+      </c>
+      <c r="I8">
+        <v>-0.1118284344028338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.07236869749352237</v>
+        <v>-0.08306298392609356</v>
       </c>
       <c r="C9">
-        <v>0.04401501441148205</v>
+        <v>0.04353914167760761</v>
       </c>
       <c r="D9">
-        <v>-0.07510495882658276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.05876266817299764</v>
+      </c>
+      <c r="E9">
+        <v>0.03271992078154487</v>
+      </c>
+      <c r="F9">
+        <v>-0.04581581926183868</v>
+      </c>
+      <c r="G9">
+        <v>-0.0402371780360555</v>
+      </c>
+      <c r="H9">
+        <v>0.01746919096724489</v>
+      </c>
+      <c r="I9">
+        <v>-0.07509600862414685</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02291423581464264</v>
+        <v>-0.05943125011385812</v>
       </c>
       <c r="C10">
-        <v>0.0213319477586406</v>
+        <v>-0.1947570841433294</v>
       </c>
       <c r="D10">
-        <v>0.1752192028226739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.03242234064481296</v>
+      </c>
+      <c r="E10">
+        <v>0.001724326335983903</v>
+      </c>
+      <c r="F10">
+        <v>-0.05313315610794217</v>
+      </c>
+      <c r="G10">
+        <v>0.04100882045162223</v>
+      </c>
+      <c r="H10">
+        <v>-0.04594227370987842</v>
+      </c>
+      <c r="I10">
+        <v>0.06077725289973104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.06944757598986429</v>
+        <v>-0.07467451377399453</v>
       </c>
       <c r="C11">
-        <v>0.0380819297325502</v>
+        <v>0.04435294269486491</v>
       </c>
       <c r="D11">
-        <v>-0.05885750824881511</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04690260141212465</v>
+      </c>
+      <c r="E11">
+        <v>0.009969610805550026</v>
+      </c>
+      <c r="F11">
+        <v>-0.0421813993429713</v>
+      </c>
+      <c r="G11">
+        <v>-0.05338029387227992</v>
+      </c>
+      <c r="H11">
+        <v>0.04646846893322868</v>
+      </c>
+      <c r="I11">
+        <v>-0.06436245246104629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.066030227017081</v>
+        <v>-0.07157805018486409</v>
       </c>
       <c r="C12">
-        <v>0.05008554605156444</v>
+        <v>0.03191471879710586</v>
       </c>
       <c r="D12">
-        <v>-0.04530607299414548</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05121586703793456</v>
+      </c>
+      <c r="E12">
+        <v>0.01861675113266509</v>
+      </c>
+      <c r="F12">
+        <v>-0.02834291365217848</v>
+      </c>
+      <c r="G12">
+        <v>-0.02914621401148546</v>
+      </c>
+      <c r="H12">
+        <v>0.01790281743703791</v>
+      </c>
+      <c r="I12">
+        <v>-0.08812599732547512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06797736047067005</v>
+        <v>-0.06618638321714955</v>
       </c>
       <c r="C13">
-        <v>0.05279621973263258</v>
+        <v>0.02850883510948662</v>
       </c>
       <c r="D13">
-        <v>-0.05529182094036349</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04838518132875339</v>
+      </c>
+      <c r="E13">
+        <v>0.05193270327899576</v>
+      </c>
+      <c r="F13">
+        <v>-0.02216910338417047</v>
+      </c>
+      <c r="G13">
+        <v>-0.008200548202950412</v>
+      </c>
+      <c r="H13">
+        <v>0.03432576225307991</v>
+      </c>
+      <c r="I13">
+        <v>-0.09679061585688548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02809303106606229</v>
+        <v>-0.03943043935418985</v>
       </c>
       <c r="C14">
-        <v>0.02881594031525095</v>
+        <v>0.0010950247132313</v>
       </c>
       <c r="D14">
-        <v>-0.005322807427601908</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03324119788621505</v>
+      </c>
+      <c r="E14">
+        <v>0.01795014949225368</v>
+      </c>
+      <c r="F14">
+        <v>-0.02179026057727479</v>
+      </c>
+      <c r="G14">
+        <v>-0.02717037399481319</v>
+      </c>
+      <c r="H14">
+        <v>0.06889942144907124</v>
+      </c>
+      <c r="I14">
+        <v>-0.05422374468924095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.0473768404497739</v>
+        <v>-0.04208087357665632</v>
       </c>
       <c r="C15">
-        <v>0.01251614740787862</v>
+        <v>0.017045139181181</v>
       </c>
       <c r="D15">
-        <v>-0.02520956310743633</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01062539413673752</v>
+      </c>
+      <c r="E15">
+        <v>0.03923708945931767</v>
+      </c>
+      <c r="F15">
+        <v>0.001571191870060415</v>
+      </c>
+      <c r="G15">
+        <v>-0.02670332859320048</v>
+      </c>
+      <c r="H15">
+        <v>0.02024978803427778</v>
+      </c>
+      <c r="I15">
+        <v>-0.03062529013992482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.05895251335940017</v>
+        <v>-0.07191805154587773</v>
       </c>
       <c r="C16">
-        <v>0.04188462395681817</v>
+        <v>0.04369914075810202</v>
       </c>
       <c r="D16">
-        <v>-0.06136951143117704</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05643995034110314</v>
+      </c>
+      <c r="E16">
+        <v>0.01821066997641435</v>
+      </c>
+      <c r="F16">
+        <v>-0.03312282510909215</v>
+      </c>
+      <c r="G16">
+        <v>-0.02834775005756857</v>
+      </c>
+      <c r="H16">
+        <v>0.03026038671188367</v>
+      </c>
+      <c r="I16">
+        <v>-0.04155367964821392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.06454525169170726</v>
+        <v>-0.06271787211634415</v>
       </c>
       <c r="C20">
-        <v>0.02396919214200958</v>
+        <v>0.03629099788232098</v>
       </c>
       <c r="D20">
-        <v>-0.05578665055418725</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.02695856639513142</v>
+      </c>
+      <c r="E20">
+        <v>0.006733936365115364</v>
+      </c>
+      <c r="F20">
+        <v>-0.03127471893045273</v>
+      </c>
+      <c r="G20">
+        <v>-0.01829937898962578</v>
+      </c>
+      <c r="H20">
+        <v>0.04365938728963467</v>
+      </c>
+      <c r="I20">
+        <v>-0.1020547961021853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03569816779467827</v>
+        <v>-0.03100229972167824</v>
       </c>
       <c r="C21">
-        <v>0.009598840943945326</v>
+        <v>0.01667769446121813</v>
       </c>
       <c r="D21">
-        <v>-0.008200558929760909</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.008064335977532247</v>
+      </c>
+      <c r="E21">
+        <v>0.03600356898527585</v>
+      </c>
+      <c r="F21">
+        <v>0.004533757792144539</v>
+      </c>
+      <c r="G21">
+        <v>-0.00158828936973524</v>
+      </c>
+      <c r="H21">
+        <v>-0.05391110122957541</v>
+      </c>
+      <c r="I21">
+        <v>-0.0312950046228691</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.1107402754476474</v>
+        <v>-0.09659799715810576</v>
       </c>
       <c r="C22">
-        <v>0.03209594668246316</v>
+        <v>0.05131758296393209</v>
       </c>
       <c r="D22">
-        <v>-0.0878337909581314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01570591584423668</v>
+      </c>
+      <c r="E22">
+        <v>0.5494543896617996</v>
+      </c>
+      <c r="F22">
+        <v>-0.02909759478895307</v>
+      </c>
+      <c r="G22">
+        <v>0.2802004240786897</v>
+      </c>
+      <c r="H22">
+        <v>-0.1300824412156743</v>
+      </c>
+      <c r="I22">
+        <v>0.2381376269285966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.1114449071535475</v>
+        <v>-0.09742807360370268</v>
       </c>
       <c r="C23">
-        <v>0.03310857784295328</v>
+        <v>0.05154632937195634</v>
       </c>
       <c r="D23">
-        <v>-0.08790579051815713</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01690361439155548</v>
+      </c>
+      <c r="E23">
+        <v>0.552818279810362</v>
+      </c>
+      <c r="F23">
+        <v>-0.03066632518118484</v>
+      </c>
+      <c r="G23">
+        <v>0.2746829367790558</v>
+      </c>
+      <c r="H23">
+        <v>-0.1296748883313549</v>
+      </c>
+      <c r="I23">
+        <v>0.2405144951017811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.07728753668540542</v>
+        <v>-0.08211845126915933</v>
       </c>
       <c r="C24">
-        <v>0.04841024848415976</v>
+        <v>0.04142884741392901</v>
       </c>
       <c r="D24">
-        <v>-0.06148211792740581</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05442384127758768</v>
+      </c>
+      <c r="E24">
+        <v>0.02415063551825177</v>
+      </c>
+      <c r="F24">
+        <v>-0.04148389334798208</v>
+      </c>
+      <c r="G24">
+        <v>-0.04489985018738366</v>
+      </c>
+      <c r="H24">
+        <v>0.01963820907907073</v>
+      </c>
+      <c r="I24">
+        <v>-0.06276032510047531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.07459137263580908</v>
+        <v>-0.07688717337807319</v>
       </c>
       <c r="C25">
-        <v>0.05455016963553976</v>
+        <v>0.03386695892868103</v>
       </c>
       <c r="D25">
-        <v>-0.05892088827221748</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05715873289983425</v>
+      </c>
+      <c r="E25">
+        <v>0.03006452731436613</v>
+      </c>
+      <c r="F25">
+        <v>-0.03502944052117916</v>
+      </c>
+      <c r="G25">
+        <v>-0.04633878243196987</v>
+      </c>
+      <c r="H25">
+        <v>0.02950048109487409</v>
+      </c>
+      <c r="I25">
+        <v>-0.07343127002647805</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.04601212177179934</v>
+        <v>-0.04463763930144772</v>
       </c>
       <c r="C26">
-        <v>0.006682122387198622</v>
+        <v>0.01896996378092646</v>
       </c>
       <c r="D26">
-        <v>-0.0129209181130733</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.00265985344286748</v>
+      </c>
+      <c r="E26">
+        <v>0.03800096763722506</v>
+      </c>
+      <c r="F26">
+        <v>-0.02604589887577003</v>
+      </c>
+      <c r="G26">
+        <v>-0.01759918091698914</v>
+      </c>
+      <c r="H26">
+        <v>0.04294546928993508</v>
+      </c>
+      <c r="I26">
+        <v>-0.01242689989047198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.04203786921257923</v>
+        <v>-0.07389753402934071</v>
       </c>
       <c r="C28">
-        <v>0.05801136094290118</v>
+        <v>-0.2924050106371125</v>
       </c>
       <c r="D28">
-        <v>0.2842306388046822</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.04759010474008361</v>
+      </c>
+      <c r="E28">
+        <v>0.01226236844374369</v>
+      </c>
+      <c r="F28">
+        <v>-0.03458827186414424</v>
+      </c>
+      <c r="G28">
+        <v>-0.0292417499260953</v>
+      </c>
+      <c r="H28">
+        <v>-0.03751895271582256</v>
+      </c>
+      <c r="I28">
+        <v>0.01295366064863188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.05026409287586137</v>
+        <v>-0.05308238114110923</v>
       </c>
       <c r="C29">
-        <v>0.04527912853688485</v>
+        <v>-0.00227767580625343</v>
       </c>
       <c r="D29">
-        <v>0.0009795819085828702</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03803250409462344</v>
+      </c>
+      <c r="E29">
+        <v>0.03629459563896645</v>
+      </c>
+      <c r="F29">
+        <v>-0.03342074236317172</v>
+      </c>
+      <c r="G29">
+        <v>-0.014453055086143</v>
+      </c>
+      <c r="H29">
+        <v>0.09105233112617576</v>
+      </c>
+      <c r="I29">
+        <v>-0.04430445469502602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1382793492429434</v>
+        <v>-0.129032273169771</v>
       </c>
       <c r="C30">
-        <v>0.0827884166632831</v>
+        <v>0.04514974407973779</v>
       </c>
       <c r="D30">
-        <v>-0.09860522257982654</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.07859476304547851</v>
+      </c>
+      <c r="E30">
+        <v>0.06711275350971824</v>
+      </c>
+      <c r="F30">
+        <v>-0.06191028811052124</v>
+      </c>
+      <c r="G30">
+        <v>-0.05054152924400587</v>
+      </c>
+      <c r="H30">
+        <v>-0.05162542476183741</v>
+      </c>
+      <c r="I30">
+        <v>-0.3130093098103781</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.05014569455556776</v>
+        <v>-0.04619892556132212</v>
       </c>
       <c r="C31">
-        <v>0.02880316687577474</v>
+        <v>0.03024081347204565</v>
       </c>
       <c r="D31">
-        <v>-0.02372898022675705</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02818272075637876</v>
+      </c>
+      <c r="E31">
+        <v>0.02200810354229603</v>
+      </c>
+      <c r="F31">
+        <v>-0.01035992351807351</v>
+      </c>
+      <c r="G31">
+        <v>0.00652705767662816</v>
+      </c>
+      <c r="H31">
+        <v>0.06484515793846576</v>
+      </c>
+      <c r="I31">
+        <v>-0.02953005456609416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.03816485199926192</v>
+        <v>-0.04357975347169089</v>
       </c>
       <c r="C32">
-        <v>0.01269959321397539</v>
+        <v>-0.001333496870405695</v>
       </c>
       <c r="D32">
-        <v>-0.02670732580787343</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01340420936976108</v>
+      </c>
+      <c r="E32">
+        <v>0.07043963527495357</v>
+      </c>
+      <c r="F32">
+        <v>0.008969457562872018</v>
+      </c>
+      <c r="G32">
+        <v>-0.02282949787572592</v>
+      </c>
+      <c r="H32">
+        <v>-0.01475798559885277</v>
+      </c>
+      <c r="I32">
+        <v>0.02167006279845702</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.09138256851600741</v>
+        <v>-0.09726892430587775</v>
       </c>
       <c r="C33">
-        <v>0.04822665866371169</v>
+        <v>0.03681316920273362</v>
       </c>
       <c r="D33">
-        <v>-0.04513897641956839</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04624646374677571</v>
+      </c>
+      <c r="E33">
+        <v>0.02969060194662132</v>
+      </c>
+      <c r="F33">
+        <v>-0.008535186270770509</v>
+      </c>
+      <c r="G33">
+        <v>-0.00174369732889067</v>
+      </c>
+      <c r="H33">
+        <v>0.0531642766787709</v>
+      </c>
+      <c r="I33">
+        <v>-0.0733761312465579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.06009276980377521</v>
+        <v>-0.06837484624557742</v>
       </c>
       <c r="C34">
-        <v>0.02435459358884898</v>
+        <v>0.0367098670529817</v>
       </c>
       <c r="D34">
-        <v>-0.05531283748965579</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03402934615109145</v>
+      </c>
+      <c r="E34">
+        <v>0.02145859409218666</v>
+      </c>
+      <c r="F34">
+        <v>-0.02678085865451299</v>
+      </c>
+      <c r="G34">
+        <v>-0.02745458914638828</v>
+      </c>
+      <c r="H34">
+        <v>0.03837294512554609</v>
+      </c>
+      <c r="I34">
+        <v>-0.04971048029407379</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.03734860684894165</v>
+        <v>-0.0366564035764889</v>
       </c>
       <c r="C35">
-        <v>0.01668767674433241</v>
+        <v>0.01359711556543467</v>
       </c>
       <c r="D35">
-        <v>-0.01553116169714374</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01779275089823933</v>
+      </c>
+      <c r="E35">
+        <v>0.01352671819575349</v>
+      </c>
+      <c r="F35">
+        <v>0.01276691797825543</v>
+      </c>
+      <c r="G35">
+        <v>-0.003349522290947166</v>
+      </c>
+      <c r="H35">
+        <v>0.03184810074436612</v>
+      </c>
+      <c r="I35">
+        <v>-0.04958716633605482</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.03147199089774159</v>
+        <v>-0.03129231491044984</v>
       </c>
       <c r="C36">
-        <v>0.01595309802540083</v>
+        <v>0.01133776833050187</v>
       </c>
       <c r="D36">
-        <v>-0.01934030822078178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01472906535886923</v>
+      </c>
+      <c r="E36">
+        <v>0.03626430995196633</v>
+      </c>
+      <c r="F36">
+        <v>-0.0334146941590301</v>
+      </c>
+      <c r="G36">
+        <v>-0.01643425611877567</v>
+      </c>
+      <c r="H36">
+        <v>0.03584290096213939</v>
+      </c>
+      <c r="I36">
+        <v>-0.06464262872748115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.07012530869972598</v>
+        <v>-0.05954529507859069</v>
       </c>
       <c r="C38">
-        <v>0.006129681557013953</v>
+        <v>0.02541880465074886</v>
       </c>
       <c r="D38">
-        <v>0.002315458954915678</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.00522073823815087</v>
+      </c>
+      <c r="E38">
+        <v>0.03417688750427521</v>
+      </c>
+      <c r="F38">
+        <v>-0.001777036876806281</v>
+      </c>
+      <c r="G38">
+        <v>0.008413796547374987</v>
+      </c>
+      <c r="H38">
+        <v>0.03904782471868454</v>
+      </c>
+      <c r="I38">
+        <v>-0.002508424432485393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.08893706218993955</v>
+        <v>-0.09778763604929828</v>
       </c>
       <c r="C39">
-        <v>0.0555575226922195</v>
+        <v>0.03244086145489376</v>
       </c>
       <c r="D39">
-        <v>-0.04685133426699738</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06003261785129368</v>
+      </c>
+      <c r="E39">
+        <v>0.02394570956340882</v>
+      </c>
+      <c r="F39">
+        <v>-0.02578409476226527</v>
+      </c>
+      <c r="G39">
+        <v>-0.03335515980594347</v>
+      </c>
+      <c r="H39">
+        <v>0.01191382834080507</v>
+      </c>
+      <c r="I39">
+        <v>-0.06445443355201842</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07694084811545149</v>
+        <v>-0.05641770758821998</v>
       </c>
       <c r="C40">
-        <v>0.02198794237833555</v>
+        <v>0.03977149826402758</v>
       </c>
       <c r="D40">
-        <v>-0.02195860150351031</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.004243023306489993</v>
+      </c>
+      <c r="E40">
+        <v>0.06906274220696677</v>
+      </c>
+      <c r="F40">
+        <v>0.006170198677201377</v>
+      </c>
+      <c r="G40">
+        <v>-0.02294045423997983</v>
+      </c>
+      <c r="H40">
+        <v>-0.05140569831530643</v>
+      </c>
+      <c r="I40">
+        <v>-0.2390839627819712</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.05151323598803341</v>
+        <v>-0.04576003866294535</v>
       </c>
       <c r="C41">
-        <v>0.01085944209506779</v>
+        <v>0.03502639283999893</v>
       </c>
       <c r="D41">
-        <v>-0.03307504585854352</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01159429837258951</v>
+      </c>
+      <c r="E41">
+        <v>-0.007789498335803734</v>
+      </c>
+      <c r="F41">
+        <v>0.01210212684773109</v>
+      </c>
+      <c r="G41">
+        <v>-0.01903489718154067</v>
+      </c>
+      <c r="H41">
+        <v>0.04275117213752099</v>
+      </c>
+      <c r="I41">
+        <v>-0.03071832516448051</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.05585018834357412</v>
+        <v>-0.05980382503141313</v>
       </c>
       <c r="C43">
-        <v>0.02887681939817047</v>
+        <v>0.02487269538198545</v>
       </c>
       <c r="D43">
-        <v>-0.01269980018479413</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02873709620358372</v>
+      </c>
+      <c r="E43">
+        <v>0.01342045527800316</v>
+      </c>
+      <c r="F43">
+        <v>-0.01850203267460358</v>
+      </c>
+      <c r="G43">
+        <v>0.006686066961828546</v>
+      </c>
+      <c r="H43">
+        <v>0.06151508710264225</v>
+      </c>
+      <c r="I43">
+        <v>-0.003453583493144661</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.09682000119738293</v>
+        <v>-0.09814328842714759</v>
       </c>
       <c r="C44">
-        <v>0.0167297648089484</v>
+        <v>0.04735828690894987</v>
       </c>
       <c r="D44">
-        <v>-0.05085434174723131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.02263735398530889</v>
+      </c>
+      <c r="E44">
+        <v>0.0877997179438612</v>
+      </c>
+      <c r="F44">
+        <v>-0.1070309132632253</v>
+      </c>
+      <c r="G44">
+        <v>-0.05905183796398254</v>
+      </c>
+      <c r="H44">
+        <v>0.04045948575548741</v>
+      </c>
+      <c r="I44">
+        <v>-0.1204876649902371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02801790770776441</v>
+        <v>-0.04206464283684953</v>
       </c>
       <c r="C46">
-        <v>0.02449833217882028</v>
+        <v>0.0223614151728978</v>
       </c>
       <c r="D46">
-        <v>-0.03172852109988743</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03763944987716013</v>
+      </c>
+      <c r="E46">
+        <v>0.03061277960120107</v>
+      </c>
+      <c r="F46">
+        <v>-0.0274793700683936</v>
+      </c>
+      <c r="G46">
+        <v>0.002589968145682973</v>
+      </c>
+      <c r="H46">
+        <v>0.02243233302812444</v>
+      </c>
+      <c r="I46">
+        <v>-0.01315224933336589</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.03840743627883978</v>
+        <v>-0.04747344322305315</v>
       </c>
       <c r="C47">
-        <v>0.02578329916363137</v>
+        <v>0.0005022383163794162</v>
       </c>
       <c r="D47">
-        <v>0.006036481145874834</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02208067787945362</v>
+      </c>
+      <c r="E47">
+        <v>0.04076949629718447</v>
+      </c>
+      <c r="F47">
+        <v>-0.003097002182653115</v>
+      </c>
+      <c r="G47">
+        <v>0.02780875321900183</v>
+      </c>
+      <c r="H47">
+        <v>0.02332024262860787</v>
+      </c>
+      <c r="I47">
+        <v>-0.03794841792622929</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.04335177871582456</v>
+        <v>-0.04267963717634562</v>
       </c>
       <c r="C48">
-        <v>0.02467212028361958</v>
+        <v>0.01396678803994401</v>
       </c>
       <c r="D48">
-        <v>-0.02751428148946458</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01871998930543596</v>
+      </c>
+      <c r="E48">
+        <v>0.05090521197170735</v>
+      </c>
+      <c r="F48">
+        <v>-0.0113366306635969</v>
+      </c>
+      <c r="G48">
+        <v>-0.00918716476110655</v>
+      </c>
+      <c r="H48">
+        <v>0.01075376910583558</v>
+      </c>
+      <c r="I48">
+        <v>-0.04674132623268844</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0.1589028110915502</v>
+        <v>-0.2029992200011635</v>
       </c>
       <c r="C49">
-        <v>0.04167893110271821</v>
+        <v>0.009522866292036834</v>
       </c>
       <c r="D49">
-        <v>-0.02463862533750623</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.04608946050812327</v>
+      </c>
+      <c r="E49">
+        <v>-0.2124387647292433</v>
+      </c>
+      <c r="F49">
+        <v>-0.009464777803468567</v>
+      </c>
+      <c r="G49">
+        <v>0.1446917609237225</v>
+      </c>
+      <c r="H49">
+        <v>-0.2301022438545282</v>
+      </c>
+      <c r="I49">
+        <v>0.08350318590011535</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.05040111405066509</v>
+        <v>-0.05053403929594508</v>
       </c>
       <c r="C50">
-        <v>0.03835793940005544</v>
+        <v>0.02518601151536009</v>
       </c>
       <c r="D50">
-        <v>-0.03518780865033404</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04032065668354923</v>
+      </c>
+      <c r="E50">
+        <v>0.02516411448484933</v>
+      </c>
+      <c r="F50">
+        <v>-0.004987761729941662</v>
+      </c>
+      <c r="G50">
+        <v>-0.01000858503259123</v>
+      </c>
+      <c r="H50">
+        <v>0.06647108798651111</v>
+      </c>
+      <c r="I50">
+        <v>-0.02926907807396814</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.02718158851504421</v>
+        <v>-0.03615495805584315</v>
       </c>
       <c r="C51">
-        <v>-0.002951474857390033</v>
+        <v>-0.004877336327648871</v>
       </c>
       <c r="D51">
-        <v>0.01050473035746087</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.009125651697849181</v>
+      </c>
+      <c r="E51">
+        <v>-0.01640798529775601</v>
+      </c>
+      <c r="F51">
+        <v>-0.01284810430136048</v>
+      </c>
+      <c r="G51">
+        <v>0.02169685308246895</v>
+      </c>
+      <c r="H51">
+        <v>-0.02328114505132357</v>
+      </c>
+      <c r="I51">
+        <v>0.02091723456977898</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1533655260910746</v>
+        <v>-0.1582070593717377</v>
       </c>
       <c r="C53">
-        <v>0.08212694152159154</v>
+        <v>0.0002342254633169548</v>
       </c>
       <c r="D53">
-        <v>0.01522771688815359</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05728666927804598</v>
+      </c>
+      <c r="E53">
+        <v>-0.03189688175113747</v>
+      </c>
+      <c r="F53">
+        <v>0.007955101829583148</v>
+      </c>
+      <c r="G53">
+        <v>0.001893402889633717</v>
+      </c>
+      <c r="H53">
+        <v>0.2085273580978968</v>
+      </c>
+      <c r="I53">
+        <v>0.1057616250199523</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.06230319605292943</v>
+        <v>-0.06210681671044432</v>
       </c>
       <c r="C54">
-        <v>0.02363918762713001</v>
+        <v>0.00413862222222487</v>
       </c>
       <c r="D54">
-        <v>-0.01962336977782879</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02100648012859126</v>
+      </c>
+      <c r="E54">
+        <v>0.06973732286072659</v>
+      </c>
+      <c r="F54">
+        <v>-0.0324247211157429</v>
+      </c>
+      <c r="G54">
+        <v>-0.05183694339259674</v>
+      </c>
+      <c r="H54">
+        <v>0.04250055556756651</v>
+      </c>
+      <c r="I54">
+        <v>-0.119324279763492</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09934493243752529</v>
+        <v>-0.1005984979804563</v>
       </c>
       <c r="C55">
-        <v>0.05174079483348176</v>
+        <v>0.0147479980343537</v>
       </c>
       <c r="D55">
-        <v>-0.009750376747798533</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04011739539115744</v>
+      </c>
+      <c r="E55">
+        <v>-0.003086991679201146</v>
+      </c>
+      <c r="F55">
+        <v>-0.02056990699064768</v>
+      </c>
+      <c r="G55">
+        <v>-0.02645861083018752</v>
+      </c>
+      <c r="H55">
+        <v>0.1579381024825298</v>
+      </c>
+      <c r="I55">
+        <v>0.02865610115937423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1409026526394216</v>
+        <v>-0.1486790236978216</v>
       </c>
       <c r="C56">
-        <v>0.09593187023741025</v>
+        <v>0.01308268590532435</v>
       </c>
       <c r="D56">
-        <v>0.009194750709179111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.07505976632035213</v>
+      </c>
+      <c r="E56">
+        <v>-0.01627074989944429</v>
+      </c>
+      <c r="F56">
+        <v>-0.010822258820014</v>
+      </c>
+      <c r="G56">
+        <v>-0.02395759143141245</v>
+      </c>
+      <c r="H56">
+        <v>0.2040047314630841</v>
+      </c>
+      <c r="I56">
+        <v>0.1195956689845563</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1220158216893737</v>
+        <v>-0.08892160955299043</v>
       </c>
       <c r="C58">
-        <v>-0.0358286600200595</v>
+        <v>0.06073359685634185</v>
       </c>
       <c r="D58">
-        <v>-0.05484843493010964</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.05865625882538229</v>
+      </c>
+      <c r="E58">
+        <v>0.1162383236283996</v>
+      </c>
+      <c r="F58">
+        <v>-0.04896310791495904</v>
+      </c>
+      <c r="G58">
+        <v>0.1153409031180275</v>
+      </c>
+      <c r="H58">
+        <v>-0.166964165297741</v>
+      </c>
+      <c r="I58">
+        <v>-0.5314226605102754</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.123323183887718</v>
+        <v>-0.1569263763628521</v>
       </c>
       <c r="C59">
-        <v>0.07610946425827138</v>
+        <v>-0.3620853744354762</v>
       </c>
       <c r="D59">
-        <v>0.4394516534279927</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.07978747150315865</v>
+      </c>
+      <c r="E59">
+        <v>-0.006554974158896853</v>
+      </c>
+      <c r="F59">
+        <v>-0.00218743059818115</v>
+      </c>
+      <c r="G59">
+        <v>-0.01480268320851899</v>
+      </c>
+      <c r="H59">
+        <v>0.02182967273615874</v>
+      </c>
+      <c r="I59">
+        <v>0.05136309096718923</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2086083661127437</v>
+        <v>-0.2394585952930337</v>
       </c>
       <c r="C60">
-        <v>0.08923941155535754</v>
+        <v>0.01735657584915823</v>
       </c>
       <c r="D60">
-        <v>-7.329198499615689e-05</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.07377675006217692</v>
+      </c>
+      <c r="E60">
+        <v>-0.1531703715312733</v>
+      </c>
+      <c r="F60">
+        <v>-0.02685389310534611</v>
+      </c>
+      <c r="G60">
+        <v>0.007680267546813084</v>
+      </c>
+      <c r="H60">
+        <v>-0.1498930196174686</v>
+      </c>
+      <c r="I60">
+        <v>0.1229501144262453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.07827529126633283</v>
+        <v>-0.08787981130869023</v>
       </c>
       <c r="C61">
-        <v>0.05167401304281281</v>
+        <v>0.02148293696959522</v>
       </c>
       <c r="D61">
-        <v>-0.02551741238362602</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.05311066806127988</v>
+      </c>
+      <c r="E61">
+        <v>0.01792334348498302</v>
+      </c>
+      <c r="F61">
+        <v>-0.02697398277483289</v>
+      </c>
+      <c r="G61">
+        <v>-0.04460717845329987</v>
+      </c>
+      <c r="H61">
+        <v>0.06373434880583824</v>
+      </c>
+      <c r="I61">
+        <v>-0.03447060361066754</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0.1372661782432698</v>
+        <v>-0.1419773289710288</v>
       </c>
       <c r="C62">
-        <v>0.06096252222516892</v>
+        <v>0.02441294123559426</v>
       </c>
       <c r="D62">
-        <v>0.008056856585164248</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04696553421928099</v>
+      </c>
+      <c r="E62">
+        <v>-0.04646302321594736</v>
+      </c>
+      <c r="F62">
+        <v>0.03971019189424278</v>
+      </c>
+      <c r="G62">
+        <v>-0.0531081657035397</v>
+      </c>
+      <c r="H62">
+        <v>0.198332434935779</v>
+      </c>
+      <c r="I62">
+        <v>0.1161833323846723</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.05626165871873646</v>
+        <v>-0.0521596789827747</v>
       </c>
       <c r="C63">
-        <v>0.01844114390862411</v>
+        <v>0.01792411524517396</v>
       </c>
       <c r="D63">
-        <v>-0.02797018078719007</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01860099170111041</v>
+      </c>
+      <c r="E63">
+        <v>0.02863599123265196</v>
+      </c>
+      <c r="F63">
+        <v>-0.006753094050314293</v>
+      </c>
+      <c r="G63">
+        <v>-0.05118083048063421</v>
+      </c>
+      <c r="H63">
+        <v>0.03673469820020218</v>
+      </c>
+      <c r="I63">
+        <v>-0.03883817798065606</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.1052399898050163</v>
+        <v>-0.1119062007497572</v>
       </c>
       <c r="C64">
-        <v>0.03689105080935977</v>
+        <v>0.008784937193701263</v>
       </c>
       <c r="D64">
-        <v>-0.01016076993855737</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0310266243838726</v>
+      </c>
+      <c r="E64">
+        <v>0.03671209720445837</v>
+      </c>
+      <c r="F64">
+        <v>-0.05772246150565795</v>
+      </c>
+      <c r="G64">
+        <v>-0.04593420972262587</v>
+      </c>
+      <c r="H64">
+        <v>0.00336577763766139</v>
+      </c>
+      <c r="I64">
+        <v>-0.04895167807186111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.121896419490469</v>
+        <v>-0.1304795298293207</v>
       </c>
       <c r="C65">
-        <v>0.04505210641324924</v>
+        <v>-0.001099205146126665</v>
       </c>
       <c r="D65">
-        <v>-0.02963963748210561</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03782881506014239</v>
+      </c>
+      <c r="E65">
+        <v>-0.01123416474726977</v>
+      </c>
+      <c r="F65">
+        <v>-0.01989920636641545</v>
+      </c>
+      <c r="G65">
+        <v>-0.08468973993077608</v>
+      </c>
+      <c r="H65">
+        <v>-0.1994474168484789</v>
+      </c>
+      <c r="I65">
+        <v>-0.0584083981995499</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.1479388894050213</v>
+        <v>-0.1460288040333997</v>
       </c>
       <c r="C66">
-        <v>0.08299102870777064</v>
+        <v>0.07447106221642968</v>
       </c>
       <c r="D66">
-        <v>-0.08363512732899754</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09046121519845302</v>
+      </c>
+      <c r="E66">
+        <v>0.003352898749975818</v>
+      </c>
+      <c r="F66">
+        <v>-0.01723915999590201</v>
+      </c>
+      <c r="G66">
+        <v>-0.08168597442748478</v>
+      </c>
+      <c r="H66">
+        <v>0.06446746912129542</v>
+      </c>
+      <c r="I66">
+        <v>-0.1128804511993023</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.09758938315216592</v>
+        <v>-0.1003416778847217</v>
       </c>
       <c r="C67">
-        <v>0.01415105461475897</v>
+        <v>0.03018767834432193</v>
       </c>
       <c r="D67">
-        <v>0.0002125123488064222</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.008761053151362703</v>
+      </c>
+      <c r="E67">
+        <v>-0.0006631218427297036</v>
+      </c>
+      <c r="F67">
+        <v>-0.01101773440599525</v>
+      </c>
+      <c r="G67">
+        <v>0.01664517319403562</v>
+      </c>
+      <c r="H67">
+        <v>0.02785042822064101</v>
+      </c>
+      <c r="I67">
+        <v>0.02932287152049747</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.04562232690292908</v>
+        <v>-0.0722924486744876</v>
       </c>
       <c r="C68">
-        <v>0.04309677841928097</v>
+        <v>-0.2784293202239346</v>
       </c>
       <c r="D68">
-        <v>0.2570805077889008</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.05370165253574685</v>
+      </c>
+      <c r="E68">
+        <v>0.03634187469686944</v>
+      </c>
+      <c r="F68">
+        <v>-0.01882367347992813</v>
+      </c>
+      <c r="G68">
+        <v>0.003035027945897498</v>
+      </c>
+      <c r="H68">
+        <v>0.01571275282932834</v>
+      </c>
+      <c r="I68">
+        <v>-0.01663630955243947</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06407270933079745</v>
+        <v>-0.05681962030188049</v>
       </c>
       <c r="C69">
-        <v>0.02809910522356138</v>
+        <v>0.01436551355362551</v>
       </c>
       <c r="D69">
-        <v>-0.01543576898501895</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01536024405594394</v>
+      </c>
+      <c r="E69">
+        <v>0.02322758310258231</v>
+      </c>
+      <c r="F69">
+        <v>0.01320322443925038</v>
+      </c>
+      <c r="G69">
+        <v>-0.002055939952882172</v>
+      </c>
+      <c r="H69">
+        <v>0.03982024688805257</v>
+      </c>
+      <c r="I69">
+        <v>-0.008570317359475936</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>0.01160478936533152</v>
+        <v>-0.03320169553048691</v>
       </c>
       <c r="C70">
-        <v>0.0004787147164021931</v>
+        <v>-0.003955970117650204</v>
       </c>
       <c r="D70">
-        <v>0.01089807834172319</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.00292279137487449</v>
+      </c>
+      <c r="E70">
+        <v>-0.02890736073473518</v>
+      </c>
+      <c r="F70">
+        <v>0.002137494444082421</v>
+      </c>
+      <c r="G70">
+        <v>0.009662998486223836</v>
+      </c>
+      <c r="H70">
+        <v>-0.02466015162448954</v>
+      </c>
+      <c r="I70">
+        <v>-0.01406182128065258</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.04347616222942659</v>
+        <v>-0.07886275925804484</v>
       </c>
       <c r="C71">
-        <v>0.03728601053553941</v>
+        <v>-0.2988030771759872</v>
       </c>
       <c r="D71">
-        <v>0.2899972616716124</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.06008265244424005</v>
+      </c>
+      <c r="E71">
+        <v>0.02909833599312943</v>
+      </c>
+      <c r="F71">
+        <v>-0.04251725813759041</v>
+      </c>
+      <c r="G71">
+        <v>-0.005031211033545634</v>
+      </c>
+      <c r="H71">
+        <v>0.01657601610796934</v>
+      </c>
+      <c r="I71">
+        <v>-0.01466273416442537</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1405613003303604</v>
+        <v>-0.1367324374912887</v>
       </c>
       <c r="C72">
-        <v>0.04661126768810383</v>
+        <v>-0.004087674889781289</v>
       </c>
       <c r="D72">
-        <v>0.02855112103083401</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0125601451150079</v>
+      </c>
+      <c r="E72">
+        <v>-0.01599750152876111</v>
+      </c>
+      <c r="F72">
+        <v>0.1670111854294463</v>
+      </c>
+      <c r="G72">
+        <v>-0.1149108477971856</v>
+      </c>
+      <c r="H72">
+        <v>0.004389389018650463</v>
+      </c>
+      <c r="I72">
+        <v>0.008535127929442554</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.260379301861881</v>
+        <v>-0.2602648391801837</v>
       </c>
       <c r="C73">
-        <v>0.07230221490574622</v>
+        <v>0.0901887164053133</v>
       </c>
       <c r="D73">
-        <v>-0.0627636874608726</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.05149145654815924</v>
+      </c>
+      <c r="E73">
+        <v>-0.3508601893012638</v>
+      </c>
+      <c r="F73">
+        <v>-0.01718256302328927</v>
+      </c>
+      <c r="G73">
+        <v>0.2225978659042777</v>
+      </c>
+      <c r="H73">
+        <v>-0.3156150047041735</v>
+      </c>
+      <c r="I73">
+        <v>0.0701552232375184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.07977977361685973</v>
+        <v>-0.0894286488293478</v>
       </c>
       <c r="C74">
-        <v>0.07815677005502533</v>
+        <v>0.01247725826223209</v>
       </c>
       <c r="D74">
-        <v>-0.00460129878150852</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.06896709366122306</v>
+      </c>
+      <c r="E74">
+        <v>-0.01031506295040542</v>
+      </c>
+      <c r="F74">
+        <v>0.005002030042640518</v>
+      </c>
+      <c r="G74">
+        <v>0.02162516597687796</v>
+      </c>
+      <c r="H74">
+        <v>0.1322825184514523</v>
+      </c>
+      <c r="I74">
+        <v>0.02292430431607581</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1093569587914751</v>
+        <v>-0.1035329234539426</v>
       </c>
       <c r="C75">
-        <v>0.04583702654282552</v>
+        <v>0.02118050820965511</v>
       </c>
       <c r="D75">
-        <v>-0.003736334135327336</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02253812452196924</v>
+      </c>
+      <c r="E75">
+        <v>0.001932181113201505</v>
+      </c>
+      <c r="F75">
+        <v>0.005806684811265728</v>
+      </c>
+      <c r="G75">
+        <v>0.005602844792473193</v>
+      </c>
+      <c r="H75">
+        <v>0.1160904657568329</v>
+      </c>
+      <c r="I75">
+        <v>0.05317949285354297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1323313113464989</v>
+        <v>-0.1333045488974836</v>
       </c>
       <c r="C76">
-        <v>0.084787034804269</v>
+        <v>0.03271612140775533</v>
       </c>
       <c r="D76">
-        <v>-0.01985715443528308</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07717072745517085</v>
+      </c>
+      <c r="E76">
+        <v>0.003831999854349182</v>
+      </c>
+      <c r="F76">
+        <v>-0.02648561670013538</v>
+      </c>
+      <c r="G76">
+        <v>-0.02850573474024498</v>
+      </c>
+      <c r="H76">
+        <v>0.2552709159125368</v>
+      </c>
+      <c r="I76">
+        <v>0.1060775721233091</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1316670609523522</v>
+        <v>-0.101265733821406</v>
       </c>
       <c r="C77">
-        <v>-0.02694901617671148</v>
+        <v>0.05831682601964274</v>
       </c>
       <c r="D77">
-        <v>-0.06803017290235966</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.049931508086548</v>
+      </c>
+      <c r="E77">
+        <v>0.1302345289487233</v>
+      </c>
+      <c r="F77">
+        <v>-0.06822779515696201</v>
+      </c>
+      <c r="G77">
+        <v>-0.7611235105743133</v>
+      </c>
+      <c r="H77">
+        <v>-0.3111826638340645</v>
+      </c>
+      <c r="I77">
+        <v>0.2909680905378133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.1130410617225727</v>
+        <v>-0.1557863787713816</v>
       </c>
       <c r="C78">
-        <v>0.03647870993737599</v>
+        <v>0.04984002464440954</v>
       </c>
       <c r="D78">
-        <v>-0.07912215240125055</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06870406806131366</v>
+      </c>
+      <c r="E78">
+        <v>0.1033313023832942</v>
+      </c>
+      <c r="F78">
+        <v>-0.05771119515696768</v>
+      </c>
+      <c r="G78">
+        <v>0.002131464086280298</v>
+      </c>
+      <c r="H78">
+        <v>-0.1520950533083461</v>
+      </c>
+      <c r="I78">
+        <v>-0.03736850889858241</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1393879839143256</v>
+        <v>-0.1419716698318301</v>
       </c>
       <c r="C79">
-        <v>0.05705391690206188</v>
+        <v>0.03170843276600951</v>
       </c>
       <c r="D79">
-        <v>-0.02833458091608864</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04379301643846906</v>
+      </c>
+      <c r="E79">
+        <v>-0.02037128701921018</v>
+      </c>
+      <c r="F79">
+        <v>-0.01159683590884554</v>
+      </c>
+      <c r="G79">
+        <v>-0.02842863204652486</v>
+      </c>
+      <c r="H79">
+        <v>0.1790666838700098</v>
+      </c>
+      <c r="I79">
+        <v>0.07945129092714953</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.03604867346413796</v>
+        <v>-0.04146588678861454</v>
       </c>
       <c r="C80">
-        <v>0.02187531190228353</v>
+        <v>0.004845752023978983</v>
       </c>
       <c r="D80">
-        <v>-0.01928432384654452</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02362531448758342</v>
+      </c>
+      <c r="E80">
+        <v>-0.04651094734890245</v>
+      </c>
+      <c r="F80">
+        <v>-0.006466222851765775</v>
+      </c>
+      <c r="G80">
+        <v>0.005097137681542529</v>
+      </c>
+      <c r="H80">
+        <v>0.02162049190301968</v>
+      </c>
+      <c r="I80">
+        <v>-0.1215296008696417</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1340079202600399</v>
+        <v>-0.1319719297252552</v>
       </c>
       <c r="C81">
-        <v>0.07460776520578376</v>
+        <v>0.01198785075217881</v>
       </c>
       <c r="D81">
-        <v>-0.006191939092211092</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.05126405658329333</v>
+      </c>
+      <c r="E81">
+        <v>0.004081314442226202</v>
+      </c>
+      <c r="F81">
+        <v>-0.01920704498014015</v>
+      </c>
+      <c r="G81">
+        <v>-0.01074638125177191</v>
+      </c>
+      <c r="H81">
+        <v>0.1554542487856868</v>
+      </c>
+      <c r="I81">
+        <v>0.02326121134965967</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.1227493932754025</v>
+        <v>-0.1222807116109423</v>
       </c>
       <c r="C82">
-        <v>0.06025696912301885</v>
+        <v>0.01784663492224817</v>
       </c>
       <c r="D82">
-        <v>-0.01340542070026363</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.04703654453784877</v>
+      </c>
+      <c r="E82">
+        <v>-0.01353414120436562</v>
+      </c>
+      <c r="F82">
+        <v>-0.02565340161426569</v>
+      </c>
+      <c r="G82">
+        <v>0.004361767586478193</v>
+      </c>
+      <c r="H82">
+        <v>0.258016245812748</v>
+      </c>
+      <c r="I82">
+        <v>0.1036164743377551</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.07657860732603959</v>
+        <v>-0.08755558127848123</v>
       </c>
       <c r="C83">
-        <v>-0.03326941504281047</v>
+        <v>0.02534221386162265</v>
       </c>
       <c r="D83">
-        <v>0.01458726428668013</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03740779098592976</v>
+      </c>
+      <c r="E83">
+        <v>0.001629330554039837</v>
+      </c>
+      <c r="F83">
+        <v>-0.03481790979381984</v>
+      </c>
+      <c r="G83">
+        <v>0.06589191001921185</v>
+      </c>
+      <c r="H83">
+        <v>-0.008961127952522114</v>
+      </c>
+      <c r="I83">
+        <v>-0.09323601961526526</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.03661181297610877</v>
+        <v>-0.03292121325209419</v>
       </c>
       <c r="C84">
-        <v>0.03186490517962418</v>
+        <v>0.03469310172020146</v>
       </c>
       <c r="D84">
-        <v>-0.03410574303916972</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03395217248896688</v>
+      </c>
+      <c r="E84">
+        <v>0.0284046699229158</v>
+      </c>
+      <c r="F84">
+        <v>0.04220196739297438</v>
+      </c>
+      <c r="G84">
+        <v>0.04016354554531387</v>
+      </c>
+      <c r="H84">
+        <v>0.04283158310635814</v>
+      </c>
+      <c r="I84">
+        <v>-0.09806424723920751</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1108470177875364</v>
+        <v>-0.1193671391925784</v>
       </c>
       <c r="C85">
-        <v>0.03077939173053844</v>
+        <v>0.03086158173449869</v>
       </c>
       <c r="D85">
-        <v>-0.03497404412281907</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.02847882888723693</v>
+      </c>
+      <c r="E85">
+        <v>-0.004761406822891612</v>
+      </c>
+      <c r="F85">
+        <v>-0.0448328388274735</v>
+      </c>
+      <c r="G85">
+        <v>-0.007697070225262839</v>
+      </c>
+      <c r="H85">
+        <v>0.1630964442902131</v>
+      </c>
+      <c r="I85">
+        <v>0.06510155842456952</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.05957118504176784</v>
+        <v>-0.05779944349553025</v>
       </c>
       <c r="C86">
-        <v>0.01919979508523368</v>
+        <v>0.03121405977711269</v>
       </c>
       <c r="D86">
-        <v>-0.06767833832520193</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01858770207984206</v>
+      </c>
+      <c r="E86">
+        <v>0.02346770482600967</v>
+      </c>
+      <c r="F86">
+        <v>-0.0227517739522912</v>
+      </c>
+      <c r="G86">
+        <v>0.01136632577581242</v>
+      </c>
+      <c r="H86">
+        <v>-0.06582301013116508</v>
+      </c>
+      <c r="I86">
+        <v>0.03057758211784438</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.124587270918994</v>
+        <v>-0.1297131019432276</v>
       </c>
       <c r="C87">
-        <v>0.06998387590892738</v>
+        <v>0.06147717629272217</v>
       </c>
       <c r="D87">
-        <v>-0.08970194057201206</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06996528892422284</v>
+      </c>
+      <c r="E87">
+        <v>0.06069672356162198</v>
+      </c>
+      <c r="F87">
+        <v>-0.03040433162891058</v>
+      </c>
+      <c r="G87">
+        <v>-0.1607793888683735</v>
+      </c>
+      <c r="H87">
+        <v>-0.1061532947455917</v>
+      </c>
+      <c r="I87">
+        <v>0.002504135097516075</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05795499288566556</v>
+        <v>-0.06371642143976783</v>
       </c>
       <c r="C88">
-        <v>0.03102072930616827</v>
+        <v>0.03170437753313448</v>
       </c>
       <c r="D88">
-        <v>-0.02646076117160332</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0374748002120347</v>
+      </c>
+      <c r="E88">
+        <v>-0.004356195161142407</v>
+      </c>
+      <c r="F88">
+        <v>-0.02237381610045753</v>
+      </c>
+      <c r="G88">
+        <v>-0.01460760674262437</v>
+      </c>
+      <c r="H88">
+        <v>0.04272041999432166</v>
+      </c>
+      <c r="I88">
+        <v>-0.03255984793837002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.07112388610898353</v>
+        <v>-0.1244157405632364</v>
       </c>
       <c r="C89">
-        <v>0.07519288654030494</v>
+        <v>-0.3773450297742655</v>
       </c>
       <c r="D89">
-        <v>0.3200813546494337</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.04855903686213189</v>
+      </c>
+      <c r="E89">
+        <v>0.0340703781297252</v>
+      </c>
+      <c r="F89">
+        <v>-0.08370944319485323</v>
+      </c>
+      <c r="G89">
+        <v>0.01631048581631854</v>
+      </c>
+      <c r="H89">
+        <v>0.008234888620157007</v>
+      </c>
+      <c r="I89">
+        <v>-0.07491448954813031</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.06046524398315491</v>
+        <v>-0.08993952670313968</v>
       </c>
       <c r="C90">
-        <v>0.03856986804112129</v>
+        <v>-0.2798831999550954</v>
       </c>
       <c r="D90">
-        <v>0.284342700514297</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.06093492785513412</v>
+      </c>
+      <c r="E90">
+        <v>0.02408809178015169</v>
+      </c>
+      <c r="F90">
+        <v>-0.03660723821259346</v>
+      </c>
+      <c r="G90">
+        <v>-0.01027446034356139</v>
+      </c>
+      <c r="H90">
+        <v>-0.0188966157018978</v>
+      </c>
+      <c r="I90">
+        <v>-0.09986904859468562</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.09582199428299337</v>
+        <v>-0.09047385191421577</v>
       </c>
       <c r="C91">
-        <v>0.05251796260617402</v>
+        <v>0.02098102666160008</v>
       </c>
       <c r="D91">
-        <v>-0.005004620562599149</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03350279444898548</v>
+      </c>
+      <c r="E91">
+        <v>-0.0002770686727074397</v>
+      </c>
+      <c r="F91">
+        <v>-0.00127107198766969</v>
+      </c>
+      <c r="G91">
+        <v>0.01214181152140778</v>
+      </c>
+      <c r="H91">
+        <v>0.0812737305339364</v>
+      </c>
+      <c r="I91">
+        <v>0.04199987070357466</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.05588119615029991</v>
+        <v>-0.09167085075779233</v>
       </c>
       <c r="C92">
-        <v>0.06024857675221981</v>
+        <v>-0.3320965856450389</v>
       </c>
       <c r="D92">
-        <v>0.329412889634903</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.05749689887285241</v>
+      </c>
+      <c r="E92">
+        <v>0.03026280749970055</v>
+      </c>
+      <c r="F92">
+        <v>-0.04336577395929634</v>
+      </c>
+      <c r="G92">
+        <v>-0.00457123852826971</v>
+      </c>
+      <c r="H92">
+        <v>0.01713690276714206</v>
+      </c>
+      <c r="I92">
+        <v>-0.02628402757133684</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.0510274162764477</v>
+        <v>-0.09095692428604719</v>
       </c>
       <c r="C93">
-        <v>0.05199428769067391</v>
+        <v>-0.3170396273045687</v>
       </c>
       <c r="D93">
-        <v>0.3090132233496725</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.05420172182110779</v>
+      </c>
+      <c r="E93">
+        <v>0.004956196696016759</v>
+      </c>
+      <c r="F93">
+        <v>-0.0291619790174029</v>
+      </c>
+      <c r="G93">
+        <v>-0.008802236690226102</v>
+      </c>
+      <c r="H93">
+        <v>-0.008240785670639425</v>
+      </c>
+      <c r="I93">
+        <v>-0.01297770345322805</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1247265853160938</v>
+        <v>-0.1252928536705038</v>
       </c>
       <c r="C94">
-        <v>0.03008345507653324</v>
+        <v>0.04458451080753126</v>
       </c>
       <c r="D94">
-        <v>-0.05185227138988684</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02308750217438742</v>
+      </c>
+      <c r="E94">
+        <v>0.008299271137836364</v>
+      </c>
+      <c r="F94">
+        <v>-0.02322470938059808</v>
+      </c>
+      <c r="G94">
+        <v>0.05224902353141565</v>
+      </c>
+      <c r="H94">
+        <v>0.1065249576689353</v>
+      </c>
+      <c r="I94">
+        <v>0.04541480772803002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1266430100361751</v>
+        <v>-0.1375361449078526</v>
       </c>
       <c r="C95">
-        <v>0.02388356709883762</v>
+        <v>0.05753610513739735</v>
       </c>
       <c r="D95">
-        <v>-0.07538587801388241</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.02344032943155417</v>
+      </c>
+      <c r="E95">
+        <v>0.01615977392599467</v>
+      </c>
+      <c r="F95">
+        <v>-0.0435220880774091</v>
+      </c>
+      <c r="G95">
+        <v>-0.04148801177403055</v>
+      </c>
+      <c r="H95">
+        <v>-0.1285521450304835</v>
+      </c>
+      <c r="I95">
+        <v>-0.04545495593642714</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0.2305258159330667</v>
+        <v>-0.1823097387900055</v>
       </c>
       <c r="C97">
-        <v>0.07195110787863769</v>
+        <v>-0.03408972928214508</v>
       </c>
       <c r="D97">
-        <v>0.1143520659602255</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.04086860130036772</v>
+      </c>
+      <c r="E97">
+        <v>0.1082313067992281</v>
+      </c>
+      <c r="F97">
+        <v>0.9311753043601312</v>
+      </c>
+      <c r="G97">
+        <v>-0.05922803447645148</v>
+      </c>
+      <c r="H97">
+        <v>-0.01778817262299353</v>
+      </c>
+      <c r="I97">
+        <v>-0.09438064654429526</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2551062027137848</v>
+        <v>-0.2745814803453335</v>
       </c>
       <c r="C98">
-        <v>0.0757088985395093</v>
+        <v>0.05421313878207686</v>
       </c>
       <c r="D98">
-        <v>-0.0274081044645881</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05699099352468308</v>
+      </c>
+      <c r="E98">
+        <v>-0.2677956339470531</v>
+      </c>
+      <c r="F98">
+        <v>0.04476364911343977</v>
+      </c>
+      <c r="G98">
+        <v>0.2570119971852819</v>
+      </c>
+      <c r="H98">
+        <v>-0.1579293486054144</v>
+      </c>
+      <c r="I98">
+        <v>0.1752496227028494</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>0.3838386163710932</v>
+        <v>-0.2372347277216397</v>
       </c>
       <c r="C99">
-        <v>-0.9001539915450804</v>
+        <v>0.2491607904344648</v>
       </c>
       <c r="D99">
-        <v>0.07146886401866752</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.911389559670151</v>
+      </c>
+      <c r="E99">
+        <v>-0.02146445753890762</v>
+      </c>
+      <c r="F99">
+        <v>-0.07830724947320251</v>
+      </c>
+      <c r="G99">
+        <v>0.01390905388319916</v>
+      </c>
+      <c r="H99">
+        <v>0.1075308580308454</v>
+      </c>
+      <c r="I99">
+        <v>-0.00544167469583066</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.05033610286943645</v>
+        <v>-0.05315977892407967</v>
       </c>
       <c r="C101">
-        <v>0.04564577523731832</v>
+        <v>-0.002085780153887678</v>
       </c>
       <c r="D101">
-        <v>0.0007599043893475673</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0385327024027461</v>
+      </c>
+      <c r="E101">
+        <v>0.03592524803391114</v>
+      </c>
+      <c r="F101">
+        <v>-0.03340106083944783</v>
+      </c>
+      <c r="G101">
+        <v>-0.01320718501493046</v>
+      </c>
+      <c r="H101">
+        <v>0.08976043423586071</v>
+      </c>
+      <c r="I101">
+        <v>-0.04440910175497398</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
